--- a/2022/Realme/January/27.01.2022/realme Bank Statement January-2022.xlsx
+++ b/2022/Realme/January/27.01.2022/realme Bank Statement January-2022.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="599" activeTab="3"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="599"/>
   </bookViews>
   <sheets>
     <sheet name="Jan-2022" sheetId="7" r:id="rId1"/>
@@ -2496,6 +2496,18 @@
     <xf numFmtId="0" fontId="4" fillId="36" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="38" fillId="35" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="35" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="35" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="35" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2523,12 +2535,6 @@
     <xf numFmtId="1" fontId="38" fillId="35" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="35" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="35" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="38" fillId="35" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2539,12 +2545,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="38" fillId="35" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="35" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="35" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="38" fillId="35" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3179,8 +3179,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K53"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="F45" sqref="F45"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="H40" sqref="H40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -4119,67 +4119,67 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="23.25">
-      <c r="A1" s="248" t="s">
+      <c r="A1" s="252" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="248"/>
-      <c r="C1" s="248"/>
-      <c r="D1" s="248"/>
-      <c r="E1" s="248"/>
-      <c r="F1" s="248"/>
-      <c r="G1" s="248"/>
-      <c r="H1" s="248"/>
-      <c r="I1" s="248"/>
-      <c r="J1" s="248"/>
-      <c r="K1" s="248"/>
-      <c r="L1" s="248"/>
-      <c r="M1" s="248"/>
-      <c r="N1" s="248"/>
-      <c r="O1" s="248"/>
-      <c r="P1" s="248"/>
-      <c r="Q1" s="248"/>
+      <c r="B1" s="252"/>
+      <c r="C1" s="252"/>
+      <c r="D1" s="252"/>
+      <c r="E1" s="252"/>
+      <c r="F1" s="252"/>
+      <c r="G1" s="252"/>
+      <c r="H1" s="252"/>
+      <c r="I1" s="252"/>
+      <c r="J1" s="252"/>
+      <c r="K1" s="252"/>
+      <c r="L1" s="252"/>
+      <c r="M1" s="252"/>
+      <c r="N1" s="252"/>
+      <c r="O1" s="252"/>
+      <c r="P1" s="252"/>
+      <c r="Q1" s="252"/>
     </row>
     <row r="2" spans="1:24" s="103" customFormat="1" ht="18">
-      <c r="A2" s="249" t="s">
+      <c r="A2" s="253" t="s">
         <v>41</v>
       </c>
-      <c r="B2" s="249"/>
-      <c r="C2" s="249"/>
-      <c r="D2" s="249"/>
-      <c r="E2" s="249"/>
-      <c r="F2" s="249"/>
-      <c r="G2" s="249"/>
-      <c r="H2" s="249"/>
-      <c r="I2" s="249"/>
-      <c r="J2" s="249"/>
-      <c r="K2" s="249"/>
-      <c r="L2" s="249"/>
-      <c r="M2" s="249"/>
-      <c r="N2" s="249"/>
-      <c r="O2" s="249"/>
-      <c r="P2" s="249"/>
-      <c r="Q2" s="249"/>
+      <c r="B2" s="253"/>
+      <c r="C2" s="253"/>
+      <c r="D2" s="253"/>
+      <c r="E2" s="253"/>
+      <c r="F2" s="253"/>
+      <c r="G2" s="253"/>
+      <c r="H2" s="253"/>
+      <c r="I2" s="253"/>
+      <c r="J2" s="253"/>
+      <c r="K2" s="253"/>
+      <c r="L2" s="253"/>
+      <c r="M2" s="253"/>
+      <c r="N2" s="253"/>
+      <c r="O2" s="253"/>
+      <c r="P2" s="253"/>
+      <c r="Q2" s="253"/>
     </row>
     <row r="3" spans="1:24" s="104" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A3" s="250" t="s">
+      <c r="A3" s="254" t="s">
         <v>69</v>
       </c>
-      <c r="B3" s="251"/>
-      <c r="C3" s="251"/>
-      <c r="D3" s="251"/>
-      <c r="E3" s="251"/>
-      <c r="F3" s="251"/>
-      <c r="G3" s="251"/>
-      <c r="H3" s="251"/>
-      <c r="I3" s="251"/>
-      <c r="J3" s="251"/>
-      <c r="K3" s="251"/>
-      <c r="L3" s="251"/>
-      <c r="M3" s="251"/>
-      <c r="N3" s="251"/>
-      <c r="O3" s="251"/>
-      <c r="P3" s="251"/>
-      <c r="Q3" s="252"/>
+      <c r="B3" s="255"/>
+      <c r="C3" s="255"/>
+      <c r="D3" s="255"/>
+      <c r="E3" s="255"/>
+      <c r="F3" s="255"/>
+      <c r="G3" s="255"/>
+      <c r="H3" s="255"/>
+      <c r="I3" s="255"/>
+      <c r="J3" s="255"/>
+      <c r="K3" s="255"/>
+      <c r="L3" s="255"/>
+      <c r="M3" s="255"/>
+      <c r="N3" s="255"/>
+      <c r="O3" s="255"/>
+      <c r="P3" s="255"/>
+      <c r="Q3" s="256"/>
       <c r="S3" s="48"/>
       <c r="T3" s="5"/>
       <c r="U3" s="5"/>
@@ -4188,52 +4188,52 @@
       <c r="X3" s="11"/>
     </row>
     <row r="4" spans="1:24" s="106" customFormat="1">
-      <c r="A4" s="253" t="s">
+      <c r="A4" s="257" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="255" t="s">
+      <c r="B4" s="259" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="257" t="s">
+      <c r="C4" s="248" t="s">
         <v>27</v>
       </c>
-      <c r="D4" s="257" t="s">
+      <c r="D4" s="248" t="s">
         <v>28</v>
       </c>
-      <c r="E4" s="257" t="s">
+      <c r="E4" s="248" t="s">
         <v>29</v>
       </c>
-      <c r="F4" s="257" t="s">
+      <c r="F4" s="248" t="s">
         <v>30</v>
       </c>
-      <c r="G4" s="257" t="s">
+      <c r="G4" s="248" t="s">
         <v>31</v>
       </c>
-      <c r="H4" s="257" t="s">
+      <c r="H4" s="248" t="s">
         <v>47</v>
       </c>
-      <c r="I4" s="257" t="s">
+      <c r="I4" s="248" t="s">
         <v>32</v>
       </c>
-      <c r="J4" s="257" t="s">
+      <c r="J4" s="248" t="s">
         <v>33</v>
       </c>
-      <c r="K4" s="257" t="s">
+      <c r="K4" s="248" t="s">
         <v>92</v>
       </c>
-      <c r="L4" s="257" t="s">
+      <c r="L4" s="248" t="s">
         <v>34</v>
       </c>
-      <c r="M4" s="257" t="s">
+      <c r="M4" s="248" t="s">
         <v>56</v>
       </c>
-      <c r="N4" s="263" t="s">
+      <c r="N4" s="250" t="s">
         <v>75</v>
       </c>
-      <c r="O4" s="261" t="s">
+      <c r="O4" s="263" t="s">
         <v>14</v>
       </c>
-      <c r="P4" s="259" t="s">
+      <c r="P4" s="261" t="s">
         <v>35</v>
       </c>
       <c r="Q4" s="105" t="s">
@@ -4246,22 +4246,22 @@
       <c r="W4" s="108"/>
     </row>
     <row r="5" spans="1:24" s="106" customFormat="1" ht="13.5" thickBot="1">
-      <c r="A5" s="254"/>
-      <c r="B5" s="256"/>
-      <c r="C5" s="258"/>
-      <c r="D5" s="258"/>
-      <c r="E5" s="258"/>
-      <c r="F5" s="258"/>
-      <c r="G5" s="258"/>
-      <c r="H5" s="258"/>
-      <c r="I5" s="258"/>
-      <c r="J5" s="258"/>
-      <c r="K5" s="258"/>
-      <c r="L5" s="258"/>
-      <c r="M5" s="258"/>
-      <c r="N5" s="264"/>
-      <c r="O5" s="262"/>
-      <c r="P5" s="260"/>
+      <c r="A5" s="258"/>
+      <c r="B5" s="260"/>
+      <c r="C5" s="249"/>
+      <c r="D5" s="249"/>
+      <c r="E5" s="249"/>
+      <c r="F5" s="249"/>
+      <c r="G5" s="249"/>
+      <c r="H5" s="249"/>
+      <c r="I5" s="249"/>
+      <c r="J5" s="249"/>
+      <c r="K5" s="249"/>
+      <c r="L5" s="249"/>
+      <c r="M5" s="249"/>
+      <c r="N5" s="251"/>
+      <c r="O5" s="264"/>
+      <c r="P5" s="262"/>
       <c r="Q5" s="110" t="s">
         <v>36</v>
       </c>
@@ -7361,6 +7361,9 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="O4:O5"/>
+    <mergeCell ref="K4:K5"/>
     <mergeCell ref="L4:L5"/>
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
@@ -7377,9 +7380,6 @@
     <mergeCell ref="G4:G5"/>
     <mergeCell ref="H4:H5"/>
     <mergeCell ref="I4:I5"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="O4:O5"/>
-    <mergeCell ref="K4:K5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -7391,8 +7391,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BI226"/>
   <sheetViews>
-    <sheetView topLeftCell="A38" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C113" sqref="C113"/>
+    <sheetView topLeftCell="A41" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="E118" sqref="E118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -7402,7 +7402,7 @@
     <col min="3" max="3" width="11.28515625" style="36" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.5703125" style="36" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.85546875" style="36" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.28515625" style="36" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="36" customWidth="1"/>
     <col min="7" max="7" width="1.42578125" style="36" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="22.28515625" style="36" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9" style="37" bestFit="1" customWidth="1"/>
@@ -9377,12 +9377,10 @@
       <c r="A30" s="42"/>
       <c r="B30" s="43"/>
       <c r="C30" s="43"/>
-      <c r="D30" s="43">
-        <v>-587070</v>
-      </c>
+      <c r="D30" s="43"/>
       <c r="E30" s="43">
         <f t="shared" si="0"/>
-        <v>-587070</v>
+        <v>0</v>
       </c>
       <c r="F30" s="43"/>
       <c r="G30" s="57"/>
@@ -9447,10 +9445,12 @@
       <c r="A31" s="42"/>
       <c r="B31" s="43"/>
       <c r="C31" s="43"/>
-      <c r="D31" s="43"/>
+      <c r="D31" s="43">
+        <v>-577420</v>
+      </c>
       <c r="E31" s="43">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-577420</v>
       </c>
       <c r="F31" s="43"/>
       <c r="G31" s="60"/>
@@ -9588,15 +9588,15 @@
       <c r="C33" s="43"/>
       <c r="D33" s="43">
         <f>SUM(D5:D32)</f>
-        <v>-587070</v>
+        <v>-577420</v>
       </c>
       <c r="E33" s="43">
         <f>SUM(E5:E32)</f>
-        <v>-587070</v>
+        <v>-577420</v>
       </c>
       <c r="F33" s="43">
         <f>B33-E33</f>
-        <v>587070</v>
+        <v>577420</v>
       </c>
       <c r="G33" s="60"/>
       <c r="H33" s="165"/>
@@ -9791,7 +9791,7 @@
       <c r="D36" s="284"/>
       <c r="E36" s="207">
         <f>F33-C113+K116</f>
-        <v>9650</v>
+        <v>0</v>
       </c>
       <c r="F36" s="202"/>
       <c r="G36" s="60"/>
@@ -16134,8 +16134,8 @@
   </sheetPr>
   <dimension ref="A1:AC223"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
